--- a/Day 52/matrix.xlsx
+++ b/Day 52/matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb456a56f5fce3a8/Documents/GitHub/100_Days_of_Coding/Day 52/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_E0F8D13D5F35CB6E92BD37D2F8230B8640DB9B55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9077EC57-56D1-4C4C-A490-E2411B44E784}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_E0F8D13D5F35CB6E92BD37D2F8230B8640DB9B55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACCA9CE-90FD-4AC6-A1D3-B0D30A8C1300}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,17 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,6 +82,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,88 +375,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1">
         <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
         <v>18</v>
       </c>
     </row>
